--- a/biology/Botanique/Nicotiana_glauca/Nicotiana_glauca.xlsx
+++ b/biology/Botanique/Nicotiana_glauca/Nicotiana_glauca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Tabac glauque ou Tabac arborescent (Nicotiana glauca) est une plante de la famille des Solanaceae, originaire du Mexique et du sud-ouest des États-Unis.
 Autres noms vernaculaires
-Tabac canaque; tabac en arbre; tabac glauque[1]
+Tabac canaque; tabac en arbre; tabac glauque
 </t>
         </is>
       </c>
@@ -515,11 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante se présente sous la forme d'un buisson peu dense ou d'un arbre peu branchu, et peut atteindre 8 m de hauteur. Les feuilles longues de 5 à 17,5 cm, sont lisses, ovales, de couleur vert-gris[2].
-Appareil reproducteur
-La floraison a lieu entre avril et novembre.
-La fleur est grande (de 3 à 15 cm de longueur) et de couleur jaune. Les pétales sont soudés en un tube s'achevant sur une sorte de collerette à 5 pointes, au centre de laquelle sont visibles 5 étamines et le style. Les sépales, verts, sont eux aussi partiellement soudés en une coupe bordée de 5 pointes[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante se présente sous la forme d'un buisson peu dense ou d'un arbre peu branchu, et peut atteindre 8 m de hauteur. Les feuilles longues de 5 à 17,5 cm, sont lisses, ovales, de couleur vert-gris.
 </t>
         </is>
       </c>
@@ -545,10 +559,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre avril et novembre.
+La fleur est grande (de 3 à 15 cm de longueur) et de couleur jaune. Les pétales sont soudés en un tube s'achevant sur une sorte de collerette à 5 pointes, au centre de laquelle sont visibles 5 étamines et le style. Les sépales, verts, sont eux aussi partiellement soudés en une coupe bordée de 5 pointes.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,12 +597,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nicotiana_glauca</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicotiana_glauca</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Nicotiana glauca et l'homme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme toutes les plantes du genre Nicotiana, le tabac glauque contient de la nicotine, alcaloïde toxique pouvant être utilisé comme insecticide. Mais il contient de plus de l'anabasine, autre alcaloïde proche de la nicotine (alcaloïde pyridinique), particulièrement efficace contre les pucerons. Pour ce faire, on réalise une décoction de feuilles de tabac glauque, qu'on vaporise sur la plante à traiter[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme toutes les plantes du genre Nicotiana, le tabac glauque contient de la nicotine, alcaloïde toxique pouvant être utilisé comme insecticide. Mais il contient de plus de l'anabasine, autre alcaloïde proche de la nicotine (alcaloïde pyridinique), particulièrement efficace contre les pucerons. Pour ce faire, on réalise une décoction de feuilles de tabac glauque, qu'on vaporise sur la plante à traiter.
 </t>
         </is>
       </c>
